--- a/Database/MCSPROJ/Data Dictionary/DataDictionary2.xlsx
+++ b/Database/MCSPROJ/Data Dictionary/DataDictionary2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="197">
   <si>
     <t>FIELD NAME</t>
   </si>
@@ -554,6 +554,71 @@
   </si>
   <si>
     <t>Thursday, Saturday</t>
+  </si>
+  <si>
+    <t>('friends', 'relatives', 'newspaper ads', 
+'LSC signage/poster', 'school', 'others')</t>
+  </si>
+  <si>
+    <t>Where did the user learned the lsc</t>
+  </si>
+  <si>
+    <t>Signage</t>
+  </si>
+  <si>
+    <t>User lastname</t>
+  </si>
+  <si>
+    <t>User firstname</t>
+  </si>
+  <si>
+    <t>User middlename</t>
+  </si>
+  <si>
+    <t>User age</t>
+  </si>
+  <si>
+    <t>User gender</t>
+  </si>
+  <si>
+    <t>User Contact Number</t>
+  </si>
+  <si>
+    <t>User home address</t>
+  </si>
+  <si>
+    <t>User attended school</t>
+  </si>
+  <si>
+    <t>User id number</t>
+  </si>
+  <si>
+    <t>User guardian name</t>
+  </si>
+  <si>
+    <t>User date of registration</t>
+  </si>
+  <si>
+    <t>User_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User ID </t>
+  </si>
+  <si>
+    <t>User selected transaction</t>
+  </si>
+  <si>
+    <t>User Status</t>
+  </si>
+  <si>
+    <t>Loyola User Center</t>
+  </si>
+  <si>
+    <t>User ID number</t>
+  </si>
+  <si>
+    <t>('Parent', 'Grandparent', 
+'Sibling', 'Other')</t>
   </si>
 </sst>
 </file>
@@ -842,7 +907,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -997,6 +1062,15 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,15 +1092,18 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -1317,6 +1394,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1324,15 +1410,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -7073,8 +7150,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table31125" displayName="Table31125" ref="A3:H22" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67" headerRowCellStyle="40% - Accent3">
-  <autoFilter ref="A3:H22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table31125" displayName="Table31125" ref="A3:H23" totalsRowShown="0" headerRowDxfId="71" dataDxfId="69" headerRowBorderDxfId="70" tableBorderDxfId="68" totalsRowBorderDxfId="67" headerRowCellStyle="40% - Accent3">
+  <autoFilter ref="A3:H23"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FIELD NAME" dataDxfId="66"/>
     <tableColumn id="2" name="DATA TYPE" dataDxfId="65"/>
@@ -7090,8 +7167,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table61326" displayName="Table61326" ref="A25:H27" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" headerRowCellStyle="40% - Accent3">
-  <autoFilter ref="A25:H27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table61326" displayName="Table61326" ref="A26:H28" totalsRowShown="0" headerRowDxfId="58" headerRowBorderDxfId="57" tableBorderDxfId="56" headerRowCellStyle="40% - Accent3">
+  <autoFilter ref="A26:H28"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FIELD NAME" dataDxfId="55"/>
     <tableColumn id="2" name="DATA TYPE" dataDxfId="54"/>
@@ -7107,8 +7184,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table71427" displayName="Table71427" ref="A31:H37" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44" headerRowCellStyle="40% - Accent3">
-  <autoFilter ref="A31:H37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table71427" displayName="Table71427" ref="A32:H38" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44" headerRowCellStyle="40% - Accent3">
+  <autoFilter ref="A32:H38"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FIELD NAME" dataDxfId="43"/>
     <tableColumn id="2" name="DATA TYPE" dataDxfId="42"/>
@@ -7124,8 +7201,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table81528" displayName="Table81528" ref="A42:H53" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32" headerRowCellStyle="40% - Accent3">
-  <autoFilter ref="A42:H53"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table81528" displayName="Table81528" ref="A43:H54" totalsRowShown="0" headerRowDxfId="35" headerRowBorderDxfId="34" tableBorderDxfId="33" totalsRowBorderDxfId="32" headerRowCellStyle="40% - Accent3">
+  <autoFilter ref="A43:H54"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FIELD NAME" dataDxfId="31"/>
     <tableColumn id="2" name="DATA TYPE" dataDxfId="30"/>
@@ -7141,8 +7218,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table91629" displayName="Table91629" ref="A57:H60" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20" headerRowCellStyle="40% - Accent3">
-  <autoFilter ref="A57:H60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table91629" displayName="Table91629" ref="A58:H61" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20" headerRowCellStyle="40% - Accent3">
+  <autoFilter ref="A58:H61"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FIELD NAME" dataDxfId="19"/>
     <tableColumn id="2" name="DATA TYPE" dataDxfId="18"/>
@@ -7158,8 +7235,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table73" displayName="Table73" ref="A64:H69" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8" headerRowCellStyle="40% - Accent3">
-  <autoFilter ref="A64:H69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table73" displayName="Table73" ref="A65:H68" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8" headerRowCellStyle="40% - Accent3">
+  <autoFilter ref="A65:H68"/>
   <tableColumns count="8">
     <tableColumn id="1" name="FIELD NAME" dataDxfId="7"/>
     <tableColumn id="2" name="DATA TYPE" dataDxfId="6"/>
@@ -7601,16 +7678,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" s="39" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:8" s="40" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
@@ -8089,16 +8166,16 @@
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" s="38" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
     </row>
     <row r="26" spans="1:8" s="36" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -8255,16 +8332,16 @@
     <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:8" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="68"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
     </row>
     <row r="35" spans="1:8" s="36" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
@@ -8396,16 +8473,16 @@
     </row>
     <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="66" t="s">
+      <c r="A42" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="67"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="67"/>
-      <c r="H42" s="68"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
     </row>
     <row r="43" spans="1:8" s="36" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
@@ -8594,16 +8671,16 @@
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="67"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="68"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="73"/>
     </row>
     <row r="53" spans="1:8" s="36" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
@@ -8779,16 +8856,16 @@
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
+      <c r="B62" s="69"/>
+      <c r="C62" s="69"/>
+      <c r="D62" s="69"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
     </row>
     <row r="63" spans="1:8" s="30" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
@@ -9003,16 +9080,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:8" s="39" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:8" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
@@ -9521,16 +9598,16 @@
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" s="38" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
     </row>
     <row r="27" spans="1:8" s="36" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -9680,16 +9757,16 @@
     </row>
     <row r="33" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="1:8" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="66" t="s">
+      <c r="A34" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="68"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
     </row>
     <row r="35" spans="1:8" s="36" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
@@ -9766,16 +9843,16 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
+      <c r="A40" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="68"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73"/>
     </row>
     <row r="41" spans="1:8" s="36" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
@@ -9903,16 +9980,16 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="68"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="73"/>
     </row>
     <row r="48" spans="1:8" s="36" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
@@ -10112,16 +10189,16 @@
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" s="37" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="69"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
     </row>
     <row r="59" spans="1:8" s="36" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
@@ -10291,10 +10368,10 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:T70"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10312,16 +10389,16 @@
   <sheetData>
     <row r="1" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:20" s="39" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:20" s="40" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
@@ -10348,18 +10425,18 @@
       <c r="H3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
     </row>
     <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -10379,23 +10456,23 @@
         <v>11</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="H4" s="12">
         <v>7</v>
       </c>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
     </row>
     <row r="5" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
@@ -10420,18 +10497,18 @@
       <c r="H5" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
     </row>
     <row r="6" spans="1:20" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -10456,18 +10533,18 @@
       <c r="H6" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
     </row>
     <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
@@ -10492,18 +10569,18 @@
       <c r="H7" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
     </row>
     <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -10523,23 +10600,23 @@
         <v>11</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="74"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
     </row>
     <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -10559,23 +10636,23 @@
         <v>11</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
     </row>
     <row r="10" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -10593,23 +10670,23 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="4" t="s">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
     </row>
     <row r="11" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
@@ -10629,23 +10706,23 @@
         <v>11</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c r="H11" s="12">
         <v>19</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
     </row>
     <row r="12" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -10663,23 +10740,23 @@
         <v>11</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>50</v>
+        <v>183</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
     </row>
     <row r="13" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
@@ -10697,23 +10774,23 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="H13" s="12">
         <v>9958705656</v>
       </c>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
     </row>
     <row r="14" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
@@ -10733,23 +10810,23 @@
         <v>11</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="H14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
@@ -10769,23 +10846,23 @@
         <v>11</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
     </row>
     <row r="16" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
@@ -10805,33 +10882,33 @@
         <v>11</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>65</v>
+        <v>188</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-    </row>
-    <row r="17" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+    </row>
+    <row r="17" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>9</v>
+      <c r="C17" s="59" t="s">
+        <v>196</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -10844,18 +10921,18 @@
       <c r="H17" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="67"/>
     </row>
     <row r="18" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
@@ -10880,18 +10957,18 @@
       <c r="H18" s="12">
         <v>92768643</v>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
     </row>
     <row r="19" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
@@ -10912,259 +10989,269 @@
         <v>104</v>
       </c>
       <c r="H19" s="12"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="74"/>
-    </row>
-    <row r="20" spans="1:20" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="5" t="s">
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="67"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="67"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="67"/>
+    </row>
+    <row r="20" spans="1:20" s="79" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="78"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+    </row>
+    <row r="21" spans="1:20" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="13">
+      <c r="G21" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="13">
         <v>42510</v>
       </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-    </row>
-    <row r="23" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="70" t="s">
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+    </row>
+    <row r="24" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-    </row>
-    <row r="24" spans="1:20" s="63" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="70"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-    </row>
-    <row r="25" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+    </row>
+    <row r="25" spans="1:20" s="63" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="75"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+    </row>
+    <row r="26" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B26" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C26" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D26" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E26" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F26" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G26" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H26" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="14" t="s">
+    <row r="27" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B27" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C27" s="11">
         <v>12345</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="11" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H27" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="5" t="s">
+    <row r="28" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C28" s="5">
         <v>12345</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="12" t="s">
+      <c r="G28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:20" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="66" t="s">
+    <row r="29" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:20" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
-    </row>
-    <row r="31" spans="1:20" s="36" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="73"/>
+    </row>
+    <row r="32" spans="1:20" s="36" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B32" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C32" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D32" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="34" t="s">
+      <c r="E32" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F32" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G32" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H32" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B33" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="5">
-        <v>12345</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="5">
         <v>12345</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="47" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>139</v>
+      <c r="G34" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>148</v>
+      <c r="A35" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B35" s="47" t="s">
         <v>7</v>
@@ -11173,168 +11260,170 @@
         <v>12345</v>
       </c>
       <c r="D35" s="5"/>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="G35" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>12345</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="H35" s="12"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B37" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="47">
+      <c r="C37" s="5"/>
+      <c r="D37" s="47">
         <v>100</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6" t="s">
+      <c r="E37" s="4"/>
+      <c r="F37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61" t="s">
+    <row r="38" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="48" t="s">
+      <c r="B38" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C38" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" s="15" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+    <row r="39" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="8">
+      <c r="G39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="8">
         <v>42511</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
+    <row r="42" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="68"/>
-    </row>
-    <row r="42" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="33" t="s">
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
+    </row>
+    <row r="43" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B43" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C43" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D43" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E43" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F43" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="34" t="s">
+      <c r="G43" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="35" t="s">
+      <c r="H43" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="5">
-        <v>12345</v>
-      </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H43" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="45">
-        <v>45</v>
-      </c>
+      <c r="C44" s="5">
+        <v>12345</v>
+      </c>
+      <c r="D44" s="45"/>
       <c r="E44" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H44" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="H44" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>7</v>
@@ -11345,42 +11434,46 @@
       <c r="D45" s="45">
         <v>45</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="F45" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>22</v>
+        <v>122</v>
+      </c>
+      <c r="H45" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="36" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="D46" s="45">
+        <v>45</v>
+      </c>
+      <c r="E46" s="5"/>
       <c r="F46" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>22</v>
@@ -11390,87 +11483,77 @@
       </c>
       <c r="D47" s="46"/>
       <c r="E47" s="11"/>
-      <c r="F47" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F47" s="5"/>
       <c r="G47" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H47" s="15" t="s">
+      <c r="H48" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="43">
+      <c r="C49" s="43">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D48" s="45"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="4" t="s">
+      <c r="D49" s="45"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H48" s="53">
+      <c r="H49" s="53">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B50" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="52">
+      <c r="C50" s="52">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="10" t="s">
+      <c r="D50" s="46"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H49" s="50" t="s">
+      <c r="H50" s="50" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="14" t="s">
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
         <v>173</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="46">
-        <v>250</v>
-      </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>8</v>
@@ -11479,22 +11562,20 @@
         <v>9</v>
       </c>
       <c r="D51" s="46">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="F51" s="5"/>
       <c r="G51" s="10" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>8</v>
@@ -11506,128 +11587,128 @@
         <v>150</v>
       </c>
       <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="46">
+        <v>150</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H53" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="71" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="18"/>
+    <row r="54" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
     </row>
     <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="2"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="69" t="s">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="2"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="69"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-    </row>
-    <row r="57" spans="1:8" ht="37.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="42" t="s">
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="74"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="74"/>
+    </row>
+    <row r="58" spans="1:8" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B58" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C58" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="44" t="s">
+      <c r="D58" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E58" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="42" t="s">
+      <c r="F58" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="42" t="s">
+      <c r="G58" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H57" s="42" t="s">
+      <c r="H58" s="42" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C59" s="5">
         <v>12345</v>
       </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5" t="s">
+      <c r="D59" s="4"/>
+      <c r="E59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H58" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="4">
-        <v>150</v>
-      </c>
-      <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>133</v>
+        <v>25</v>
+      </c>
+      <c r="H59" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>8</v>
@@ -11636,209 +11717,183 @@
         <v>9</v>
       </c>
       <c r="D60" s="4">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4">
+        <v>400</v>
+      </c>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H60" s="6"/>
-    </row>
-    <row r="63" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="66" t="s">
+      <c r="H61" s="6"/>
+    </row>
+    <row r="64" spans="1:8" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B63" s="67"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="68"/>
-    </row>
-    <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="33" t="s">
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="73"/>
+    </row>
+    <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B65" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C65" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="34" t="s">
+      <c r="D65" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="34" t="s">
+      <c r="E65" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="34" t="s">
+      <c r="F65" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G64" s="34" t="s">
+      <c r="G65" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="35" t="s">
+      <c r="H65" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="9" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C66" s="5">
         <v>12345</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D66" s="4">
         <v>6</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G66" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H66" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="14" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B67" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C67" s="11">
         <v>12345</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D67" s="10">
         <v>6</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E67" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="F67" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H66" s="15">
+      <c r="G67" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H67" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="5" t="s">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="45">
-        <v>45</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H67" s="49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="5">
-        <v>12345</v>
-      </c>
-      <c r="D68" s="45"/>
-      <c r="E68" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="D68" s="5">
+        <v>250</v>
+      </c>
+      <c r="E68" s="5"/>
       <c r="F68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H68" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>168</v>
+      <c r="G68" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="6"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="5">
-        <v>250</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="D69" s="4"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G69" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H69" s="13">
         <v>42511</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A63:H63"/>
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="A23:H24"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="A24:H25"/>
     <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A42:H42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1"/>
